--- a/tests/testing_files/conversion_assign_before_value.xlsx
+++ b/tests/testing_files/conversion_assign_before_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9307C-CC6B-454E-BC4B-932180DA1069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A864CC2-763A-4C4E-AB72-C0EEF1AA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="2415" windowWidth="23565" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="4155" yWindow="2340" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
@@ -251,13 +251,13 @@
     <t>IC-FTMS_measurement</t>
   </si>
   <si>
-    <t>#unique=false</t>
-  </si>
-  <si>
     <t>#measurement.formula.assign</t>
   </si>
   <si>
     <t>asdf</t>
+  </si>
+  <si>
+    <t>#match=all</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,18 +646,18 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
